--- a/biology/Médecine/Panique_(film,_1982)/Panique_(film,_1982).xlsx
+++ b/biology/Médecine/Panique_(film,_1982)/Panique_(film,_1982).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Panique (Bakterion) est un film italien de Tonino Ricci sorti en 1982.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite d'une expérience sur un virus, un scientifique londonien se transforme en un monstre assoiffé de sang qui fait des victimes parmi tous ceux qui croisent son chemin. Pour éviter une éventuelle contagion, Londres est initialement mise en quarantaine en attendant de retrouver le monstre.
 </t>
@@ -542,11 +556,13 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Titre original italien : Bakterion[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Titre original italien : Bakterion
 Titre espagnol : Pánico
-Titre français : Panique[2]
+Titre français : Panique
 Titre québécois : Panique dans la nuit
 Réalisateur : Tonino Ricci
 Scénario : Víctor Andrés Catena, Jaime Comas Gil
@@ -565,7 +581,7 @@
 Dates de sortie :
 Italie : 7 décembre 1982
 Espagne : 1er mars 1983
-France : 25 avril 1984[2]</t>
+France : 25 avril 1984</t>
         </is>
       </c>
     </row>
@@ -593,7 +609,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>David Warbeck : Capitaine Kirk
 Janet Ågren : Jane Blake
